--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\iCloudDrive\master of applied computing\capstone project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1F98E27-4F93-4FF3-9005-8F8C4F45CD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEA0DB1-CC56-4355-8449-D1100358DAFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D610AD3D-CB8F-4C87-92FA-B792B710B5E8}"/>
   </bookViews>
@@ -34,31 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>Week9</t>
-  </si>
-  <si>
-    <t>Week10</t>
-  </si>
-  <si>
-    <t>Week11</t>
-  </si>
-  <si>
-    <t>Week12</t>
-  </si>
-  <si>
-    <t>Week13</t>
-  </si>
-  <si>
-    <t>Week14</t>
-  </si>
-  <si>
-    <t>Week15</t>
-  </si>
-  <si>
-    <t>Week16</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>September Block1 ( September 2025 - November 2025)</t>
   </si>
@@ -88,9 +64,6 @@
   </si>
   <si>
     <t>September Block2 ( November 2025 - January 2025)</t>
-  </si>
-  <si>
-    <t>Week17</t>
   </si>
   <si>
     <t>Project Planning &amp; Preparation</t>
@@ -218,7 +191,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -822,13 +795,22 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -851,79 +833,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -933,12 +853,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
@@ -949,6 +863,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1263,161 +1241,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040F8887-68C6-4964-9812-4CD85DD933DC}">
-  <dimension ref="A1:AA19"/>
+  <dimension ref="A1:Z19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="10" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="18" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="17" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="26" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="50"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="29" t="s">
+    <row r="1" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="48"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="66"/>
+      <c r="B3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-    </row>
-    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
-      <c r="B3" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>16</v>
-      </c>
       <c r="J3" s="18" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M3" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N3" s="16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O3" s="16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P3" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="54" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="56"/>
-    </row>
-    <row r="5" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44"/>
+      <c r="Q3" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="61"/>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -1429,15 +1401,14 @@
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="58"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
-        <v>34</v>
+      <c r="Q5" s="34"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
+        <v>25</v>
       </c>
       <c r="B6" s="21"/>
-      <c r="C6" s="35"/>
+      <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="6"/>
       <c r="F6" s="2"/>
@@ -1451,18 +1422,17 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="60"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="36"/>
+      <c r="Q6" s="36"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="1"/>
       <c r="E7" s="16"/>
-      <c r="F7" s="45"/>
+      <c r="F7" s="29"/>
       <c r="G7" s="5"/>
       <c r="H7" s="2"/>
       <c r="I7" s="20"/>
@@ -1473,87 +1443,83 @@
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
       <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="54"/>
-    </row>
-    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="61" t="s">
-        <v>32</v>
+      <c r="Q7" s="32"/>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="37" t="s">
+        <v>23</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="20"/>
-      <c r="D8" s="42"/>
+      <c r="D8" s="26"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="47"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="31"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
       <c r="M8" s="16"/>
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
       <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="54"/>
-    </row>
-    <row r="9" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q8" s="32"/>
+    </row>
+    <row r="9" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="63"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="64" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="64"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
+        <v>10</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
       <c r="D10" s="10"/>
-      <c r="E10" s="41"/>
+      <c r="E10" s="25"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="13"/>
-      <c r="J10" s="37"/>
+      <c r="J10" s="24"/>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="58"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="65" t="s">
-        <v>20</v>
+      <c r="Q10" s="34"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="s">
+        <v>11</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="40"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="9"/>
       <c r="J11" s="7"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -1561,12 +1527,11 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="60"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="65" t="s">
-        <v>21</v>
+      <c r="Q11" s="36"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="s">
+        <v>12</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="1"/>
@@ -1576,19 +1541,18 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="9"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="35"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="2"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="60"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="65" t="s">
-        <v>25</v>
+      <c r="Q12" s="36"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="39" t="s">
+        <v>16</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="1"/>
@@ -1600,17 +1564,16 @@
       <c r="I13" s="9"/>
       <c r="J13" s="7"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="60"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="65" t="s">
-        <v>22</v>
+      <c r="Q13" s="36"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="39" t="s">
+        <v>13</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="1"/>
@@ -1624,15 +1587,14 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="19"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
       <c r="P14" s="3"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="60"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="65" t="s">
-        <v>23</v>
+      <c r="Q14" s="36"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="s">
+        <v>14</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="1"/>
@@ -1648,60 +1610,58 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="60"/>
-    </row>
-    <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="66" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="67"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="71"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="67"/>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="45"/>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="5"/>
-      <c r="D18" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="24"/>
+      <c r="D18" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="56"/>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="4"/>
-      <c r="D19" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="26"/>
+      <c r="D19" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="A9:Q9"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A1:Q1"/>
     <mergeCell ref="B2:I2"/>
-    <mergeCell ref="J2:R2"/>
-    <mergeCell ref="S2:AA2"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="R2:Z2"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A4:R4"/>
-    <mergeCell ref="A9:R9"/>
-    <mergeCell ref="A2:A3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="24" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>